--- a/Tabellen/crosstab/4.xlsx
+++ b/Tabellen/crosstab/4.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,16 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Polaritätsprofil S3.1: modern/traditionell in %</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -510,6 +520,36 @@
           <t>All</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +582,24 @@
       <c r="G4" t="n">
         <v>4</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -567,6 +625,24 @@
       <c r="G5" t="n">
         <v>21</v>
       </c>
+      <c r="H5" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -592,6 +668,24 @@
       <c r="G6" t="n">
         <v>24</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.97</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>41.38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -617,6 +711,24 @@
       <c r="G7" t="n">
         <v>6</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -642,6 +754,24 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
+      <c r="H8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -667,9 +797,28 @@
       <c r="G9" t="n">
         <v>58</v>
       </c>
+      <c r="H9" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="J9" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37.93</v>
+      </c>
+      <c r="L9" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="M9" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
